--- a/data/active-extract.xlsx
+++ b/data/active-extract.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Incident List" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'Incident List'!$A$1:$AF$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'Incident List'!$A$1:$AF$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="487">
   <si>
     <t>Id</t>
   </si>
@@ -788,87 +788,63 @@
     <t>RCH Melbourne/North/Lower Ground/HIS - Health Information Services</t>
   </si>
   <si>
+    <t>283088</t>
+  </si>
+  <si>
+    <t>Notes documented on incorrect patient</t>
+  </si>
+  <si>
+    <t>Goldfeld, Sharon</t>
+  </si>
+  <si>
+    <t>267082</t>
+  </si>
+  <si>
+    <t>Paediatrician</t>
+  </si>
+  <si>
+    <t>Community Child Health</t>
+  </si>
+  <si>
+    <t>Stewart, Aimee</t>
+  </si>
+  <si>
+    <t>284628</t>
+  </si>
+  <si>
+    <t>Patient Contact Mover-Chart Correction Case #664</t>
+  </si>
+  <si>
+    <t>EMR App - HIM</t>
+  </si>
+  <si>
+    <t>284656</t>
+  </si>
+  <si>
+    <t>ADT error - Cannot Cancel Admission by Discharge</t>
+  </si>
+  <si>
+    <t>296913</t>
+  </si>
+  <si>
+    <t>Missing links in EPIC-Refer to job #161020</t>
+  </si>
+  <si>
+    <t>297209</t>
+  </si>
+  <si>
+    <t>Orders not linking to both appointments</t>
+  </si>
+  <si>
+    <t>Allied Health : Reception B</t>
+  </si>
+  <si>
+    <t>RCH Melbourne/East/1st/Allied Health : Reception B</t>
+  </si>
+  <si>
     <t>Jean, Renee</t>
   </si>
   <si>
-    <t>283088</t>
-  </si>
-  <si>
-    <t>Notes documented on incorrect patient</t>
-  </si>
-  <si>
-    <t>Goldfeld, Sharon</t>
-  </si>
-  <si>
-    <t>267082</t>
-  </si>
-  <si>
-    <t>Paediatrician</t>
-  </si>
-  <si>
-    <t>Community Child Health</t>
-  </si>
-  <si>
-    <t>Stewart, Aimee</t>
-  </si>
-  <si>
-    <t>284628</t>
-  </si>
-  <si>
-    <t>Patient Contact Mover-Chart Correction Case #664</t>
-  </si>
-  <si>
-    <t>EMR App - HIM</t>
-  </si>
-  <si>
-    <t>284656</t>
-  </si>
-  <si>
-    <t>ADT error - Cannot Cancel Admission by Discharge</t>
-  </si>
-  <si>
-    <t>295379</t>
-  </si>
-  <si>
-    <t>Inappropriate message on AHDAC referral</t>
-  </si>
-  <si>
-    <t>Biggins, Rose</t>
-  </si>
-  <si>
-    <t>4001131</t>
-  </si>
-  <si>
-    <t>Occupational Therapist</t>
-  </si>
-  <si>
-    <t>Occupational Therapy</t>
-  </si>
-  <si>
-    <t>RCH Melbourne/East/1st/Occupational Therapy</t>
-  </si>
-  <si>
-    <t>EMR App - Orders</t>
-  </si>
-  <si>
-    <t>296913</t>
-  </si>
-  <si>
-    <t>Missing links in EPIC-Refer to job #161020</t>
-  </si>
-  <si>
-    <t>297209</t>
-  </si>
-  <si>
-    <t>Orders not linking to both appointments</t>
-  </si>
-  <si>
-    <t>Allied Health : Reception B</t>
-  </si>
-  <si>
-    <t>RCH Melbourne/East/1st/Allied Health : Reception B</t>
-  </si>
-  <si>
     <t>299416</t>
   </si>
   <si>
@@ -962,49 +938,145 @@
     <t>220884</t>
   </si>
   <si>
-    <t>329022</t>
-  </si>
-  <si>
-    <t>Adding a Blue Dot on the schedule</t>
+    <t>332713</t>
+  </si>
+  <si>
+    <t>Referral receipt issues</t>
   </si>
   <si>
     <t>Improvement</t>
   </si>
   <si>
-    <t>Vadala, Josette</t>
-  </si>
-  <si>
-    <t>4002045</t>
+    <t>Poulakis, Zeffie</t>
+  </si>
+  <si>
+    <t>4001017</t>
+  </si>
+  <si>
+    <t>CFPC Coordinator</t>
+  </si>
+  <si>
+    <t>335481</t>
+  </si>
+  <si>
+    <t>[sherlock 3240154] Issue with HOV My Open Charts Messages</t>
+  </si>
+  <si>
+    <t>4005426</t>
+  </si>
+  <si>
+    <t>EMR Ambulatory - MyRCHPortal</t>
+  </si>
+  <si>
+    <t>Gehrz, Casie</t>
+  </si>
+  <si>
+    <t>336672</t>
+  </si>
+  <si>
+    <t>[look at post golive] Confirmation column addition to Provider Schedule</t>
+  </si>
+  <si>
+    <t>Alexander, Nicole</t>
+  </si>
+  <si>
+    <t>4003736</t>
+  </si>
+  <si>
+    <t>Physiotherapist</t>
+  </si>
+  <si>
+    <t>Physiotherapy</t>
+  </si>
+  <si>
+    <t>340762</t>
+  </si>
+  <si>
+    <t>Replacement referrals</t>
+  </si>
+  <si>
+    <t>4003373</t>
+  </si>
+  <si>
+    <t>Specialist Clinics Clerk</t>
+  </si>
+  <si>
+    <t>345255</t>
+  </si>
+  <si>
+    <t>it43781 not available in Epic - need to assign lws id and epic name prior to configuring</t>
+  </si>
+  <si>
+    <t>Boyce, Suzanne</t>
+  </si>
+  <si>
+    <t>3001124</t>
+  </si>
+  <si>
+    <t>Consultant Paediatrician</t>
+  </si>
+  <si>
+    <t>General Medicine</t>
+  </si>
+  <si>
+    <t>EMR Technical - Printers, Faxing &amp; Workstations</t>
+  </si>
+  <si>
+    <t>350049</t>
+  </si>
+  <si>
+    <t>Unable to sign off medication</t>
+  </si>
+  <si>
+    <t>Tang, Nancy</t>
+  </si>
+  <si>
+    <t>2003295</t>
+  </si>
+  <si>
+    <t>Possum Ward</t>
+  </si>
+  <si>
+    <t>350932</t>
+  </si>
+  <si>
+    <t>Replaced PC's in finance billing team - require LWS update</t>
+  </si>
+  <si>
+    <t>Pan, Shen</t>
+  </si>
+  <si>
+    <t>99002931</t>
+  </si>
+  <si>
+    <t>EMR Go Live</t>
+  </si>
+  <si>
+    <t>Major RCH IT Project</t>
+  </si>
+  <si>
+    <t>ICT - Information Communications Technology</t>
+  </si>
+  <si>
+    <t>RCH Melbourne/North/Lower Ground/ICT - Information Communications Technology</t>
+  </si>
+  <si>
+    <t>352648</t>
+  </si>
+  <si>
+    <t>2 patients not appearing in the Social Work Deceased patients report</t>
+  </si>
+  <si>
+    <t>Jelic, Jenny</t>
+  </si>
+  <si>
+    <t>4004509</t>
   </si>
   <si>
     <t>Admin Officer</t>
   </si>
   <si>
-    <t>Integrated Mental Health</t>
-  </si>
-  <si>
-    <t>Travancore</t>
-  </si>
-  <si>
-    <t>331186</t>
-  </si>
-  <si>
-    <t>Is there a way to "undelete a letter so it can be edited</t>
-  </si>
-  <si>
-    <t>Benn, Kerri</t>
-  </si>
-  <si>
-    <t>3003171</t>
-  </si>
-  <si>
-    <t>MWU</t>
-  </si>
-  <si>
-    <t>Developmental Medicine</t>
-  </si>
-  <si>
-    <t>RCH Melbourne/West/3rd/Developmental Medicine</t>
+    <t>Allied Health Admin</t>
   </si>
   <si>
     <t>EMR ClinDoc</t>
@@ -1013,141 +1085,6 @@
     <t>EMR App - ClinDoc</t>
   </si>
   <si>
-    <t>332713</t>
-  </si>
-  <si>
-    <t>Referral receipt issues</t>
-  </si>
-  <si>
-    <t>Poulakis, Zeffie</t>
-  </si>
-  <si>
-    <t>4001017</t>
-  </si>
-  <si>
-    <t>CFPC Coordinator</t>
-  </si>
-  <si>
-    <t>335481</t>
-  </si>
-  <si>
-    <t>[sherlock 3240154] Issue with HOV My Open Charts Messages</t>
-  </si>
-  <si>
-    <t>4005426</t>
-  </si>
-  <si>
-    <t>EMR Ambulatory - MyRCHPortal</t>
-  </si>
-  <si>
-    <t>Gehrz, Casie</t>
-  </si>
-  <si>
-    <t>336672</t>
-  </si>
-  <si>
-    <t>[look at post golive] Confirmation column addition to Provider Schedule</t>
-  </si>
-  <si>
-    <t>Alexander, Nicole</t>
-  </si>
-  <si>
-    <t>4003736</t>
-  </si>
-  <si>
-    <t>Physiotherapist</t>
-  </si>
-  <si>
-    <t>Physiotherapy</t>
-  </si>
-  <si>
-    <t>340762</t>
-  </si>
-  <si>
-    <t>Replacement referrals</t>
-  </si>
-  <si>
-    <t>4003373</t>
-  </si>
-  <si>
-    <t>Specialist Clinics Clerk</t>
-  </si>
-  <si>
-    <t>345255</t>
-  </si>
-  <si>
-    <t>it43781 not available in Epic - need to assign lws id and epic name prior to configuring</t>
-  </si>
-  <si>
-    <t>Boyce, Suzanne</t>
-  </si>
-  <si>
-    <t>3001124</t>
-  </si>
-  <si>
-    <t>Consultant Paediatrician</t>
-  </si>
-  <si>
-    <t>General Medicine</t>
-  </si>
-  <si>
-    <t>EMR Technical - Printers, Faxing &amp; Workstations</t>
-  </si>
-  <si>
-    <t>350049</t>
-  </si>
-  <si>
-    <t>Unable to sign off medication</t>
-  </si>
-  <si>
-    <t>Tang, Nancy</t>
-  </si>
-  <si>
-    <t>2003295</t>
-  </si>
-  <si>
-    <t>Possum Ward</t>
-  </si>
-  <si>
-    <t>350932</t>
-  </si>
-  <si>
-    <t>Replaced PC's in finance billing team - require LWS update</t>
-  </si>
-  <si>
-    <t>Pan, Shen</t>
-  </si>
-  <si>
-    <t>99002931</t>
-  </si>
-  <si>
-    <t>EMR Go Live</t>
-  </si>
-  <si>
-    <t>Major RCH IT Project</t>
-  </si>
-  <si>
-    <t>ICT - Information Communications Technology</t>
-  </si>
-  <si>
-    <t>RCH Melbourne/North/Lower Ground/ICT - Information Communications Technology</t>
-  </si>
-  <si>
-    <t>352648</t>
-  </si>
-  <si>
-    <t>2 patients not appearing in the Social Work Deceased patients report</t>
-  </si>
-  <si>
-    <t>Jelic, Jenny</t>
-  </si>
-  <si>
-    <t>4004509</t>
-  </si>
-  <si>
-    <t>Allied Health Admin</t>
-  </si>
-  <si>
     <t>354327</t>
   </si>
   <si>
@@ -1217,46 +1154,19 @@
     <t>RCH Melbourne/West/3rd/Cardiac Surgery</t>
   </si>
   <si>
-    <t>361239</t>
-  </si>
-  <si>
-    <t>Medical Imaging Performed time displaying a future time.</t>
-  </si>
-  <si>
-    <t>Sheppard, Jade</t>
-  </si>
-  <si>
-    <t>2001499</t>
-  </si>
-  <si>
-    <t>EMR Trainer</t>
-  </si>
-  <si>
-    <t>MCRI</t>
-  </si>
-  <si>
-    <t>365443</t>
-  </si>
-  <si>
-    <t>[waiting cc] Collect and Print - doesn't print the order. Users always have to reprint.</t>
-  </si>
-  <si>
-    <t>Sullivan, Karen</t>
-  </si>
-  <si>
-    <t>2001346</t>
-  </si>
-  <si>
     <t>366217</t>
   </si>
   <si>
     <t>Pharmacy can't see referrals</t>
   </si>
   <si>
-    <t>366524</t>
-  </si>
-  <si>
-    <t>Batch run not working: RCH Amb Close Echo Visits</t>
+    <t>367444</t>
+  </si>
+  <si>
+    <t>[sherlock 3325612] Encounters not converting from appt to clinic/visit when documenting Reason for Attendance</t>
+  </si>
+  <si>
+    <t>Classify</t>
   </si>
   <si>
     <t>4005022</t>
@@ -1268,15 +1178,6 @@
     <t>Administration - Medicine</t>
   </si>
   <si>
-    <t>367444</t>
-  </si>
-  <si>
-    <t>[sherlock 3325612] Encounters not converting from appt to clinic/visit when documenting Reason for Attendance</t>
-  </si>
-  <si>
-    <t>Classify</t>
-  </si>
-  <si>
     <t>367509</t>
   </si>
   <si>
@@ -1304,36 +1205,6 @@
     <t>[sherlock 3328914] Portal 'Legal Guardian' wording in Proxy access</t>
   </si>
   <si>
-    <t>367805</t>
-  </si>
-  <si>
-    <t>Medication transfer issues between Wallaby, Emergency Dept and Kookaburra</t>
-  </si>
-  <si>
-    <t>Cochrane, Emma</t>
-  </si>
-  <si>
-    <t>2002568</t>
-  </si>
-  <si>
-    <t>Kookaburra Ward</t>
-  </si>
-  <si>
-    <t>Kookaburra Ward: Cancer Care</t>
-  </si>
-  <si>
-    <t>RCH Melbourne/North/2nd/Kookaburra Ward: Cancer Care</t>
-  </si>
-  <si>
-    <t>Lockett, Kelly</t>
-  </si>
-  <si>
-    <t>367827</t>
-  </si>
-  <si>
-    <t>Chart Correction Activity linked to Encounter Incorrectly</t>
-  </si>
-  <si>
     <t>368307</t>
   </si>
   <si>
@@ -1361,30 +1232,6 @@
     <t>Huynh, Kon</t>
   </si>
   <si>
-    <t>369437</t>
-  </si>
-  <si>
-    <t>Sleep Scientists unable to discharge Overnight Oximetries</t>
-  </si>
-  <si>
-    <t>Blair, Cheryl</t>
-  </si>
-  <si>
-    <t>4005240</t>
-  </si>
-  <si>
-    <t>Admin Assistant</t>
-  </si>
-  <si>
-    <t>Respiratory Medicine</t>
-  </si>
-  <si>
-    <t>Respiratory Medicine - Reception L</t>
-  </si>
-  <si>
-    <t>RCH Melbourne/West/3rd/Respiratory Medicine - Reception L</t>
-  </si>
-  <si>
     <t>369463</t>
   </si>
   <si>
@@ -1424,19 +1271,7 @@
     <t>ICT DBA</t>
   </si>
   <si>
-    <t>Omarjee, Bilal</t>
-  </si>
-  <si>
-    <t>370222</t>
-  </si>
-  <si>
-    <t>Order 110116248 did not arrive on a Sched Orders WQ</t>
-  </si>
-  <si>
-    <t>Beattie, Sean</t>
-  </si>
-  <si>
-    <t>4003017</t>
+    <t>Jurista, Michael</t>
   </si>
   <si>
     <t>370697</t>
@@ -1463,7 +1298,7 @@
     <t>371275</t>
   </si>
   <si>
-    <t>needs to populate the provider field when completing Billing Activity - prior to upgrade this autopopulated</t>
+    <t>[Waiting for user] needs to populate the provider field when completing Billing Activity - prior to upgrade this autopopulated</t>
   </si>
   <si>
     <t>Camporeale, Nicola</t>
@@ -1604,43 +1439,43 @@
     <t>RCH Melbourne/East/2nd/CCC - Children Cancer Centre</t>
   </si>
   <si>
-    <t>372053</t>
-  </si>
-  <si>
-    <t>Note format</t>
-  </si>
-  <si>
-    <t>Hutchinson, Philippa</t>
-  </si>
-  <si>
-    <t>2002551</t>
-  </si>
-  <si>
-    <t>Nursing and Administration Workforce</t>
-  </si>
-  <si>
-    <t>372059</t>
-  </si>
-  <si>
-    <t>Provider can't schedule with VT External Visit (217)</t>
-  </si>
-  <si>
-    <t>4005031</t>
-  </si>
-  <si>
-    <t>372246</t>
-  </si>
-  <si>
-    <t>Unable to select procedure for Theatre case</t>
-  </si>
-  <si>
-    <t>Seenyen, Cheryl</t>
-  </si>
-  <si>
-    <t>4002377</t>
-  </si>
-  <si>
-    <t>Personal Assistant</t>
+    <t>372272</t>
+  </si>
+  <si>
+    <t>RCH Referral Override [T00029] disallowing some referral actions</t>
+  </si>
+  <si>
+    <t>372485</t>
+  </si>
+  <si>
+    <t>New PC installed - Need to create new LWS</t>
+  </si>
+  <si>
+    <t>Fitzgerald, Daniel</t>
+  </si>
+  <si>
+    <t>4003685</t>
+  </si>
+  <si>
+    <t>Service Desk Analyst</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>CAH Office - Centre Adolescent Health</t>
+  </si>
+  <si>
+    <t>RCH Melbourne/East/2nd/CAH Office - Centre Adolescent Health</t>
+  </si>
+  <si>
+    <t>373348</t>
+  </si>
+  <si>
+    <t>Parent called becasue she is unable to logon to the portal. Please reset password/authorisation.</t>
+  </si>
+  <si>
+    <t>224499</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1581,7 @@
     <col min="9" max="9" width="18.23828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="19.0" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="26.2109375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="31.92578125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="30.140625" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="39.14453125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="70.12890625" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="39.14453125" customWidth="true" bestFit="true"/>
@@ -3964,7 +3799,7 @@
         <v>216</v>
       </c>
       <c r="X27" t="s" s="6">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -3974,7 +3809,7 @@
         <v>42815.28844027778</v>
       </c>
       <c r="AD27" t="n" s="7">
-        <v>42818.59729583334</v>
+        <v>42947.36460315972</v>
       </c>
       <c r="AE27" t="n" s="7">
         <v>42821.708333333336</v>
@@ -3983,10 +3818,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="6">
+        <v>257</v>
+      </c>
+      <c r="B28" t="s" s="6">
         <v>258</v>
-      </c>
-      <c r="B28" t="s" s="6">
-        <v>259</v>
       </c>
       <c r="C28" t="s" s="6">
         <v>35</v>
@@ -4003,16 +3838,16 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s" s="6">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s" s="6">
         <v>260</v>
       </c>
-      <c r="J28" t="s" s="6">
+      <c r="K28" t="s" s="6">
         <v>261</v>
       </c>
-      <c r="K28" t="s" s="6">
+      <c r="L28" t="s" s="6">
         <v>262</v>
-      </c>
-      <c r="L28" t="s" s="6">
-        <v>263</v>
       </c>
       <c r="M28" t="s" s="6">
         <v>94</v>
@@ -4040,7 +3875,7 @@
       </c>
       <c r="U28"/>
       <c r="V28" t="s" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W28" t="s" s="6">
         <v>63</v>
@@ -4065,10 +3900,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="6">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s" s="6">
         <v>265</v>
-      </c>
-      <c r="B29" t="s" s="6">
-        <v>266</v>
       </c>
       <c r="C29" t="s" s="6">
         <v>35</v>
@@ -4125,7 +3960,7 @@
         <v>252</v>
       </c>
       <c r="W29" t="s" s="6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X29" t="s" s="6">
         <v>95</v>
@@ -4147,10 +3982,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="6">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s" s="6">
         <v>268</v>
-      </c>
-      <c r="B30" t="s" s="6">
-        <v>269</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>35</v>
@@ -4227,16 +4062,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="6">
+        <v>269</v>
+      </c>
+      <c r="B31" t="s" s="6">
         <v>270</v>
-      </c>
-      <c r="B31" t="s" s="6">
-        <v>271</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D31" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>37</v>
@@ -4247,72 +4082,72 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s" s="6">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s" s="6">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s" s="6">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="6">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="6">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="N31" t="s" s="6">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s" s="6">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="P31" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q31" t="s" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="6">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s" s="6">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="T31" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U31"/>
       <c r="V31" t="s" s="6">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="W31" t="s" s="6">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="X31" t="s" s="6">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
       <c r="AB31"/>
       <c r="AC31" t="n" s="7">
-        <v>42836.34959341435</v>
+        <v>42837.400798055554</v>
       </c>
       <c r="AD31" t="n" s="7">
-        <v>42943.511370532404</v>
+        <v>42838.64928990741</v>
       </c>
       <c r="AE31" t="n" s="7">
-        <v>42842.708333333336</v>
+        <v>42842.40079803241</v>
       </c>
       <c r="AF31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="6">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="6">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s" s="6">
         <v>35</v>
@@ -4329,84 +4164,84 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s" s="6">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="6">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="6">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="L32" t="s" s="6">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="M32" t="s" s="6">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="N32" t="s" s="6">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="6">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="P32" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q32" t="s" s="6">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="R32" t="s" s="6">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="S32" t="s" s="6">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="T32" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U32"/>
       <c r="V32" t="s" s="6">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="W32" t="s" s="6">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="X32" t="s" s="6">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
       <c r="AC32" t="n" s="7">
-        <v>42837.400798055554</v>
+        <v>42837.498023217595</v>
       </c>
       <c r="AD32" t="n" s="7">
-        <v>42838.64928990741</v>
+        <v>42928.47963149306</v>
       </c>
       <c r="AE32" t="n" s="7">
-        <v>42842.40079803241</v>
+        <v>42842.49802320602</v>
       </c>
       <c r="AF32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="6">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="6">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C33" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D33" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F33" t="s" s="6">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -4423,22 +4258,22 @@
         <v>81</v>
       </c>
       <c r="M33" t="s" s="6">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="N33" t="s" s="6">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s" s="6">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P33" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q33" t="s" s="6">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="R33" t="s" s="6">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s" s="6">
         <v>214</v>
@@ -4448,35 +4283,35 @@
       </c>
       <c r="U33"/>
       <c r="V33" t="s" s="6">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="W33" t="s" s="6">
         <v>216</v>
       </c>
       <c r="X33" t="s" s="6">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
       <c r="AC33" t="n" s="7">
-        <v>42837.498023217595</v>
+        <v>42843.596397291665</v>
       </c>
       <c r="AD33" t="n" s="7">
-        <v>42928.47963149306</v>
+        <v>42843.63937733796</v>
       </c>
       <c r="AE33" t="n" s="7">
-        <v>42842.49802320602</v>
+        <v>42850.59639724537</v>
       </c>
       <c r="AF33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="6">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="6">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C34" t="s" s="6">
         <v>35</v>
@@ -4488,30 +4323,30 @@
         <v>37</v>
       </c>
       <c r="F34" t="s" s="6">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s" s="6">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="6">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="K34" t="s" s="6">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s" s="6">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M34" t="s" s="6">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="N34" t="s" s="6">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="O34" t="s" s="6">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="P34" t="s" s="6">
         <v>44</v>
@@ -4523,147 +4358,147 @@
         <v>46</v>
       </c>
       <c r="S34" t="s" s="6">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="T34" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U34"/>
       <c r="V34" t="s" s="6">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="W34" t="s" s="6">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="X34" t="s" s="6">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Y34"/>
       <c r="Z34"/>
       <c r="AA34"/>
       <c r="AB34"/>
       <c r="AC34" t="n" s="7">
-        <v>42843.596397291665</v>
+        <v>42853.54298724537</v>
       </c>
       <c r="AD34" t="n" s="7">
-        <v>42843.63937733796</v>
+        <v>42865.70626046296</v>
       </c>
       <c r="AE34" t="n" s="7">
-        <v>42850.59639724537</v>
+        <v>42860.54299362269</v>
       </c>
       <c r="AF34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="6">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="6">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D35" t="s" s="6">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F35" t="s" s="6">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35" t="s" s="6">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="6">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s" s="6">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="6">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="6">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="6">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="O35" t="s" s="6">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="P35" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q35" t="s" s="6">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="R35" t="s" s="6">
         <v>46</v>
       </c>
       <c r="S35" t="s" s="6">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="T35" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U35"/>
       <c r="V35" t="s" s="6">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="W35" t="s" s="6">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X35" t="s" s="6">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35"/>
       <c r="AC35" t="n" s="7">
-        <v>42853.54298724537</v>
+        <v>42853.7269340162</v>
       </c>
       <c r="AD35" t="n" s="7">
-        <v>42865.70626046296</v>
+        <v>42856.51023597222</v>
       </c>
       <c r="AE35" t="n" s="7">
-        <v>42860.54299362269</v>
+        <v>42854.72694054398</v>
       </c>
       <c r="AF35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="6">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="6">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D36" t="s" s="6">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F36" t="s" s="6">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="s" s="6">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s" s="6">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s" s="6">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="6">
         <v>254</v>
@@ -4681,92 +4516,92 @@
         <v>44</v>
       </c>
       <c r="Q36" t="s" s="6">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="R36" t="s" s="6">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="6">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="T36" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U36"/>
       <c r="V36" t="s" s="6">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="W36" t="s" s="6">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="X36" t="s" s="6">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="Y36"/>
       <c r="Z36"/>
       <c r="AA36"/>
       <c r="AB36"/>
       <c r="AC36" t="n" s="7">
-        <v>42853.7269340162</v>
+        <v>42857.33297271991</v>
       </c>
       <c r="AD36" t="n" s="7">
-        <v>42856.51023597222</v>
+        <v>42947.3545734838</v>
       </c>
       <c r="AE36" t="n" s="7">
-        <v>42854.72694054398</v>
+        <v>42863.708333333336</v>
       </c>
       <c r="AF36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="6">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="6">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C37" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D37" t="s" s="6">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F37" t="s" s="6">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s" s="6">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="6">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s" s="6">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s" s="6">
         <v>254</v>
       </c>
       <c r="M37" t="s" s="6">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="6">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="O37" t="s" s="6">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="P37" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q37" t="s" s="6">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="R37" t="s" s="6">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s" s="6">
         <v>61</v>
@@ -4776,117 +4611,117 @@
       </c>
       <c r="U37"/>
       <c r="V37" t="s" s="6">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="6">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="X37" t="s" s="6">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37"/>
       <c r="AC37" t="n" s="7">
-        <v>42857.33297271991</v>
+        <v>42858.67476178241</v>
       </c>
       <c r="AD37" t="n" s="7">
-        <v>42870.54503476852</v>
+        <v>42859.69019998843</v>
       </c>
       <c r="AE37" t="n" s="7">
-        <v>42863.708333333336</v>
+        <v>42859.67476728009</v>
       </c>
       <c r="AF37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="6">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="6">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D38" t="s" s="6">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F38" t="s" s="6">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="s" s="6">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="J38" t="s" s="6">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s" s="6">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="6">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="6">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="N38" t="s" s="6">
-        <v>300</v>
+        <v>94</v>
       </c>
       <c r="O38" t="s" s="6">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="P38" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q38" t="s" s="6">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="R38" t="s" s="6">
         <v>46</v>
       </c>
       <c r="S38" t="s" s="6">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="T38" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U38"/>
       <c r="V38" t="s" s="6">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="W38" t="s" s="6">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="X38" t="s" s="6">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="Y38"/>
       <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38"/>
       <c r="AC38" t="n" s="7">
-        <v>42858.67476178241</v>
+        <v>42871.556427800926</v>
       </c>
       <c r="AD38" t="n" s="7">
-        <v>42859.69019998843</v>
+        <v>42894.70291883102</v>
       </c>
       <c r="AE38" t="n" s="7">
-        <v>42859.67476728009</v>
+        <v>42878.55627313657</v>
       </c>
       <c r="AF38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="6">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="6">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>35</v>
@@ -4898,30 +4733,30 @@
         <v>37</v>
       </c>
       <c r="F39" t="s" s="6">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s" s="6">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="6">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s" s="6">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="6">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="M39" t="s" s="6">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s" s="6">
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s" s="6">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="P39" t="s" s="6">
         <v>44</v>
@@ -4933,42 +4768,42 @@
         <v>46</v>
       </c>
       <c r="S39" t="s" s="6">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="T39" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U39"/>
       <c r="V39" t="s" s="6">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="W39" t="s" s="6">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="X39" t="s" s="6">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
       <c r="AC39" t="n" s="7">
-        <v>42871.556427800926</v>
+        <v>42874.6918205787</v>
       </c>
       <c r="AD39" t="n" s="7">
-        <v>42894.70291883102</v>
+        <v>42874.734195833335</v>
       </c>
       <c r="AE39" t="n" s="7">
-        <v>42878.55627313657</v>
+        <v>42881.691394814814</v>
       </c>
       <c r="AF39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="6">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="6">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>35</v>
@@ -4980,30 +4815,30 @@
         <v>37</v>
       </c>
       <c r="F40" t="s" s="6">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s" s="6">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="J40" t="s" s="6">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="6">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s" s="6">
         <v>254</v>
       </c>
       <c r="M40" t="s" s="6">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="N40" t="s" s="6">
-        <v>310</v>
+        <v>94</v>
       </c>
       <c r="O40" t="s" s="6">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="P40" t="s" s="6">
         <v>44</v>
@@ -5012,7 +4847,7 @@
         <v>60</v>
       </c>
       <c r="R40" t="s" s="6">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="6">
         <v>61</v>
@@ -5022,7 +4857,7 @@
       </c>
       <c r="U40"/>
       <c r="V40" t="s" s="6">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="W40" t="s" s="6">
         <v>63</v>
@@ -5035,48 +4870,48 @@
       <c r="AA40"/>
       <c r="AB40"/>
       <c r="AC40" t="n" s="7">
-        <v>42874.6918205787</v>
+        <v>42881.402804537036</v>
       </c>
       <c r="AD40" t="n" s="7">
-        <v>42874.734195833335</v>
+        <v>42881.463341608796</v>
       </c>
       <c r="AE40" t="n" s="7">
-        <v>42881.691394814814</v>
+        <v>42888.402804537036</v>
       </c>
       <c r="AF40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="6">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="6">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D41" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F41" t="s" s="6">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s" s="6">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J41" t="s" s="6">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="6">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="6">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="6">
         <v>94</v>
@@ -5091,128 +4926,130 @@
         <v>44</v>
       </c>
       <c r="Q41" t="s" s="6">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="R41" t="s" s="6">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S41" t="s" s="6">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="T41" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U41"/>
       <c r="V41" t="s" s="6">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="W41" t="s" s="6">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="X41" t="s" s="6">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
       <c r="AC41" t="n" s="7">
-        <v>42881.402804537036</v>
+        <v>42888.529937997686</v>
       </c>
       <c r="AD41" t="n" s="7">
-        <v>42881.463341608796</v>
+        <v>42943.77890571759</v>
       </c>
       <c r="AE41" t="n" s="7">
-        <v>42888.402804537036</v>
+        <v>42893.52993818287</v>
       </c>
       <c r="AF41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="6">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="6">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D42" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F42" t="s" s="6">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s" s="6">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="J42" t="s" s="6">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s" s="6">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="6">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="M42" t="s" s="6">
-        <v>322</v>
+        <v>94</v>
       </c>
       <c r="N42" t="s" s="6">
-        <v>322</v>
-      </c>
-      <c r="O42"/>
+        <v>94</v>
+      </c>
+      <c r="O42" t="s" s="6">
+        <v>94</v>
+      </c>
       <c r="P42" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q42" t="s" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="6">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S42" t="s" s="6">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="T42" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U42"/>
       <c r="V42" t="s" s="6">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="W42" t="s" s="6">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="X42" t="s" s="6">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
       <c r="AC42" t="n" s="7">
-        <v>42885.415950462964</v>
+        <v>42893.59700385416</v>
       </c>
       <c r="AD42" t="n" s="7">
-        <v>42943.48951892361</v>
+        <v>42922.30254101852</v>
       </c>
       <c r="AE42" t="n" s="7">
-        <v>42892.41595047454</v>
+        <v>42898.59700376158</v>
       </c>
       <c r="AF42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="6">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="6">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C43" t="s" s="6">
         <v>35</v>
@@ -5224,75 +5061,77 @@
         <v>37</v>
       </c>
       <c r="F43" t="s" s="6">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s" s="6">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J43" t="s" s="6">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s" s="6">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="6">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="6">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="6">
-        <v>329</v>
-      </c>
-      <c r="O43"/>
+        <v>274</v>
+      </c>
+      <c r="O43" t="s" s="6">
+        <v>273</v>
+      </c>
       <c r="P43" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q43" t="s" s="6">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="R43" t="s" s="6">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="6">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="T43" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U43"/>
       <c r="V43" t="s" s="6">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="W43" t="s" s="6">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="X43" t="s" s="6">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="Y43"/>
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
       <c r="AC43" t="n" s="7">
-        <v>42887.57006119213</v>
+        <v>42894.65246217592</v>
       </c>
       <c r="AD43" t="n" s="7">
-        <v>42940.63817888889</v>
+        <v>42922.45758327546</v>
       </c>
       <c r="AE43" t="n" s="7">
-        <v>42894.57006128472</v>
+        <v>42901.6524621412</v>
       </c>
       <c r="AF43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="6">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="6">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C44" t="s" s="6">
         <v>35</v>
@@ -5304,36 +5143,34 @@
         <v>37</v>
       </c>
       <c r="F44" t="s" s="6">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s" s="6">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="J44" t="s" s="6">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K44" t="s" s="6">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="6">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="M44" t="s" s="6">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="N44" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="O44" t="s" s="6">
-        <v>94</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O44"/>
       <c r="P44" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q44" t="s" s="6">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="6">
         <v>46</v>
@@ -5346,7 +5183,7 @@
       </c>
       <c r="U44"/>
       <c r="V44" t="s" s="6">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="W44" t="s" s="6">
         <v>216</v>
@@ -5359,22 +5196,22 @@
       <c r="AA44"/>
       <c r="AB44"/>
       <c r="AC44" t="n" s="7">
-        <v>42888.529937997686</v>
+        <v>42900.61882782407</v>
       </c>
       <c r="AD44" t="n" s="7">
-        <v>42943.77890571759</v>
+        <v>42901.521327511575</v>
       </c>
       <c r="AE44" t="n" s="7">
-        <v>42893.52993818287</v>
+        <v>42905.618827893515</v>
       </c>
       <c r="AF44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="6">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="6">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C45" t="s" s="6">
         <v>35</v>
@@ -5391,16 +5228,16 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s" s="6">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="J45" t="s" s="6">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="6">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="6">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s" s="6">
         <v>94</v>
@@ -5415,48 +5252,48 @@
         <v>44</v>
       </c>
       <c r="Q45" t="s" s="6">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="R45" t="s" s="6">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="S45" t="s" s="6">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="T45" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U45"/>
       <c r="V45" t="s" s="6">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="W45" t="s" s="6">
-        <v>85</v>
+        <v>334</v>
       </c>
       <c r="X45" t="s" s="6">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
       <c r="AC45" t="n" s="7">
-        <v>42893.59700385416</v>
+        <v>42907.44035138889</v>
       </c>
       <c r="AD45" t="n" s="7">
-        <v>42922.30254101852</v>
+        <v>42912.57023349537</v>
       </c>
       <c r="AE45" t="n" s="7">
-        <v>42898.59700376158</v>
+        <v>42912.440351400466</v>
       </c>
       <c r="AF45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="6">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="6">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s" s="6">
         <v>35</v>
@@ -5468,163 +5305,165 @@
         <v>37</v>
       </c>
       <c r="F46" t="s" s="6">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s" s="6">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J46" t="s" s="6">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K46" t="s" s="6">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s" s="6">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="6">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="N46" t="s" s="6">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="O46" t="s" s="6">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="P46" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q46" t="s" s="6">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="R46" t="s" s="6">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S46" t="s" s="6">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="T46" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U46"/>
       <c r="V46" t="s" s="6">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="W46" t="s" s="6">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="X46" t="s" s="6">
-        <v>341</v>
+        <v>49</v>
       </c>
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
       <c r="AC46" t="n" s="7">
-        <v>42894.65246217592</v>
+        <v>42914.67496174768</v>
       </c>
       <c r="AD46" t="n" s="7">
-        <v>42922.45758327546</v>
+        <v>42926.44325174768</v>
       </c>
       <c r="AE46" t="n" s="7">
-        <v>42901.6524621412</v>
+        <v>42921.67496182871</v>
       </c>
       <c r="AF46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="6">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="6">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C47" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D47" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F47" t="s" s="6">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s" s="6">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="J47" t="s" s="6">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K47" t="s" s="6">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s" s="6">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="6">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="N47" t="s" s="6">
-        <v>121</v>
-      </c>
-      <c r="O47"/>
+        <v>347</v>
+      </c>
+      <c r="O47" t="s" s="6">
+        <v>346</v>
+      </c>
       <c r="P47" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q47" t="s" s="6">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="R47" t="s" s="6">
         <v>46</v>
       </c>
       <c r="S47" t="s" s="6">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="T47" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U47"/>
       <c r="V47" t="s" s="6">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="W47" t="s" s="6">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="X47" t="s" s="6">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
       <c r="AC47" t="n" s="7">
-        <v>42900.61882782407</v>
+        <v>42915.679192222226</v>
       </c>
       <c r="AD47" t="n" s="7">
-        <v>42901.521327511575</v>
+        <v>42915.799197395834</v>
       </c>
       <c r="AE47" t="n" s="7">
-        <v>42905.618827893515</v>
+        <v>42922.67919217593</v>
       </c>
       <c r="AF47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="6">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="6">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C48" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D48" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s" s="6">
         <v>37</v>
@@ -5635,16 +5474,16 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s" s="6">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J48" t="s" s="6">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K48" t="s" s="6">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L48" t="s" s="6">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s" s="6">
         <v>94</v>
@@ -5662,45 +5501,45 @@
         <v>60</v>
       </c>
       <c r="R48" t="s" s="6">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="6">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="T48" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U48"/>
       <c r="V48" t="s" s="6">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="6">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="X48" t="s" s="6">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
       <c r="AC48" t="n" s="7">
-        <v>42907.44035138889</v>
+        <v>42919.42670459491</v>
       </c>
       <c r="AD48" t="n" s="7">
-        <v>42912.57023349537</v>
+        <v>42919.469209131945</v>
       </c>
       <c r="AE48" t="n" s="7">
-        <v>42912.440351400466</v>
+        <v>42926.426704641206</v>
       </c>
       <c r="AF48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="6">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="6">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>35</v>
@@ -5717,25 +5556,25 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s" s="6">
+        <v>358</v>
+      </c>
+      <c r="J49" t="s" s="6">
+        <v>359</v>
+      </c>
+      <c r="K49" t="s" s="6">
+        <v>360</v>
+      </c>
+      <c r="L49" t="s" s="6">
         <v>361</v>
       </c>
-      <c r="J49" t="s" s="6">
-        <v>362</v>
-      </c>
-      <c r="K49" t="s" s="6">
-        <v>137</v>
-      </c>
-      <c r="L49" t="s" s="6">
-        <v>363</v>
-      </c>
       <c r="M49" t="s" s="6">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="N49" t="s" s="6">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="O49" t="s" s="6">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P49" t="s" s="6">
         <v>44</v>
@@ -5747,159 +5586,155 @@
         <v>46</v>
       </c>
       <c r="S49" t="s" s="6">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="T49" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U49"/>
       <c r="V49" t="s" s="6">
-        <v>49</v>
+        <v>358</v>
       </c>
       <c r="W49" t="s" s="6">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="X49" t="s" s="6">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
       <c r="AC49" t="n" s="7">
-        <v>42914.67496174768</v>
+        <v>42920.59115357639</v>
       </c>
       <c r="AD49" t="n" s="7">
-        <v>42926.44325174768</v>
+        <v>42926.403147847224</v>
       </c>
       <c r="AE49" t="n" s="7">
-        <v>42921.67496182871</v>
+        <v>42929.465838310185</v>
       </c>
       <c r="AF49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="6">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="6">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D50" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F50" t="s" s="6">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s" s="6">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J50" t="s" s="6">
-        <v>367</v>
-      </c>
-      <c r="K50" t="s" s="6">
-        <v>368</v>
-      </c>
-      <c r="L50" t="s" s="6">
-        <v>369</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
       <c r="M50" t="s" s="6">
-        <v>370</v>
+        <v>94</v>
       </c>
       <c r="N50" t="s" s="6">
-        <v>371</v>
+        <v>94</v>
       </c>
       <c r="O50" t="s" s="6">
-        <v>370</v>
+        <v>94</v>
       </c>
       <c r="P50" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q50" t="s" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="6">
         <v>46</v>
       </c>
       <c r="S50" t="s" s="6">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="T50" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U50"/>
       <c r="V50" t="s" s="6">
+        <v>364</v>
+      </c>
+      <c r="W50" t="s" s="6">
         <v>366</v>
       </c>
-      <c r="W50" t="s" s="6">
-        <v>358</v>
-      </c>
       <c r="X50" t="s" s="6">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
       <c r="AC50" t="n" s="7">
-        <v>42915.679192222226</v>
+        <v>42922.720774444446</v>
       </c>
       <c r="AD50" t="n" s="7">
-        <v>42915.799197395834</v>
+        <v>42928.39443579861</v>
       </c>
       <c r="AE50" t="n" s="7">
-        <v>42922.67919217593</v>
+        <v>42927.708333333336</v>
       </c>
       <c r="AF50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="6">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D51" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F51" t="s" s="6">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s" s="6">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J51" t="s" s="6">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="6">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="6">
-        <v>376</v>
+        <v>58</v>
       </c>
       <c r="M51" t="s" s="6">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="N51" t="s" s="6">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="O51" t="s" s="6">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="P51" t="s" s="6">
         <v>44</v>
@@ -5908,45 +5743,45 @@
         <v>60</v>
       </c>
       <c r="R51" t="s" s="6">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="S51" t="s" s="6">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T51" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U51"/>
       <c r="V51" t="s" s="6">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="W51" t="s" s="6">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="X51" t="s" s="6">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
       <c r="AC51" t="n" s="7">
-        <v>42919.42670459491</v>
+        <v>42926.40660601852</v>
       </c>
       <c r="AD51" t="n" s="7">
-        <v>42919.469209131945</v>
+        <v>42926.44848990741</v>
       </c>
       <c r="AE51" t="n" s="7">
-        <v>42926.426704641206</v>
+        <v>42929.40660607639</v>
       </c>
       <c r="AF51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="6">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="6">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>35</v>
@@ -5958,30 +5793,30 @@
         <v>37</v>
       </c>
       <c r="F52" t="s" s="6">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s" s="6">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J52" t="s" s="6">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s" s="6">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="6">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s" s="6">
-        <v>94</v>
+        <v>377</v>
       </c>
       <c r="N52" t="s" s="6">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="O52" t="s" s="6">
-        <v>94</v>
+        <v>377</v>
       </c>
       <c r="P52" t="s" s="6">
         <v>44</v>
@@ -5993,14 +5828,14 @@
         <v>46</v>
       </c>
       <c r="S52" t="s" s="6">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="T52" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U52"/>
       <c r="V52" t="s" s="6">
-        <v>379</v>
+        <v>227</v>
       </c>
       <c r="W52" t="s" s="6">
         <v>122</v>
@@ -6013,22 +5848,22 @@
       <c r="AA52"/>
       <c r="AB52"/>
       <c r="AC52" t="n" s="7">
-        <v>42920.59115357639</v>
+        <v>42930.67887523148</v>
       </c>
       <c r="AD52" t="n" s="7">
-        <v>42926.403147847224</v>
+        <v>42933.45665868055</v>
       </c>
       <c r="AE52" t="n" s="7">
-        <v>42929.465838310185</v>
+        <v>42937.6788752662</v>
       </c>
       <c r="AF52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="6">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="6">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>35</v>
@@ -6040,73 +5875,77 @@
         <v>37</v>
       </c>
       <c r="F53" t="s" s="6">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s" s="6">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s" s="6">
-        <v>386</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53"/>
+        <v>40</v>
+      </c>
+      <c r="K53" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="L53" t="s" s="6">
+        <v>42</v>
+      </c>
       <c r="M53" t="s" s="6">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="N53" t="s" s="6">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="O53" t="s" s="6">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="P53" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q53" t="s" s="6">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="R53" t="s" s="6">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="S53" t="s" s="6">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="T53" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U53"/>
       <c r="V53" t="s" s="6">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="W53" t="s" s="6">
-        <v>387</v>
+        <v>216</v>
       </c>
       <c r="X53" t="s" s="6">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53"/>
       <c r="AC53" t="n" s="7">
-        <v>42922.720774444446</v>
+        <v>42937.59338493056</v>
       </c>
       <c r="AD53" t="n" s="7">
-        <v>42928.39443579861</v>
+        <v>42944.585330671296</v>
       </c>
       <c r="AE53" t="n" s="7">
-        <v>42927.708333333336</v>
+        <v>42942.593385162036</v>
       </c>
       <c r="AF53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="6">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="6">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C54" t="s" s="6">
         <v>35</v>
@@ -6115,33 +5954,33 @@
         <v>36</v>
       </c>
       <c r="E54" t="s" s="6">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="F54" t="s" s="6">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s" s="6">
-        <v>390</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="6">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K54" t="s" s="6">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="L54" t="s" s="6">
-        <v>58</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="6">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="N54" t="s" s="6">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="O54" t="s" s="6">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P54" t="s" s="6">
         <v>44</v>
@@ -6153,42 +5992,40 @@
         <v>103</v>
       </c>
       <c r="S54" t="s" s="6">
-        <v>358</v>
+        <v>84</v>
       </c>
       <c r="T54" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U54"/>
       <c r="V54" t="s" s="6">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="W54" t="s" s="6">
-        <v>392</v>
-      </c>
-      <c r="X54" t="s" s="6">
-        <v>123</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54"/>
       <c r="AC54" t="n" s="7">
-        <v>42926.40660601852</v>
+        <v>42940.32159288194</v>
       </c>
       <c r="AD54" t="n" s="7">
-        <v>42926.44848990741</v>
+        <v>42941.4478581713</v>
       </c>
       <c r="AE54" t="n" s="7">
-        <v>42929.40660607639</v>
+        <v>42942.708333333336</v>
       </c>
       <c r="AF54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="6">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>35</v>
@@ -6205,25 +6042,25 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s" s="6">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J55" t="s" s="6">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="6">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="6">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="6">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="N55" t="s" s="6">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="O55" t="s" s="6">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="P55" t="s" s="6">
         <v>44</v>
@@ -6235,48 +6072,48 @@
         <v>46</v>
       </c>
       <c r="S55" t="s" s="6">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="T55" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U55"/>
       <c r="V55" t="s" s="6">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="W55" t="s" s="6">
-        <v>122</v>
+        <v>393</v>
       </c>
       <c r="X55" t="s" s="6">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
       <c r="AB55"/>
       <c r="AC55" t="n" s="7">
-        <v>42930.67887523148</v>
+        <v>42940.499670081015</v>
       </c>
       <c r="AD55" t="n" s="7">
-        <v>42933.45665868055</v>
+        <v>42944.64137311342</v>
       </c>
       <c r="AE55" t="n" s="7">
-        <v>42937.6788752662</v>
+        <v>42947.49967025463</v>
       </c>
       <c r="AF55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="6">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="6">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D56" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s" s="6">
         <v>37</v>
@@ -6287,25 +6124,25 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s" s="6">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="J56" t="s" s="6">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K56" t="s" s="6">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L56" t="s" s="6">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="M56" t="s" s="6">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="N56" t="s" s="6">
-        <v>405</v>
+        <v>200</v>
       </c>
       <c r="O56" t="s" s="6">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="P56" t="s" s="6">
         <v>44</v>
@@ -6314,45 +6151,45 @@
         <v>45</v>
       </c>
       <c r="R56" t="s" s="6">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="S56" t="s" s="6">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="T56" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U56"/>
       <c r="V56" t="s" s="6">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="W56" t="s" s="6">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="X56" t="s" s="6">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Y56"/>
       <c r="Z56"/>
       <c r="AA56"/>
       <c r="AB56"/>
       <c r="AC56" t="n" s="7">
-        <v>42929.72768548611</v>
+        <v>42940.506349675925</v>
       </c>
       <c r="AD56" t="n" s="7">
-        <v>42942.78034075232</v>
+        <v>42944.31016706018</v>
       </c>
       <c r="AE56" t="n" s="7">
-        <v>42936.708333333336</v>
+        <v>42943.50634982639</v>
       </c>
       <c r="AF56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="6">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="6">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C57" t="s" s="6">
         <v>35</v>
@@ -6364,30 +6201,30 @@
         <v>37</v>
       </c>
       <c r="F57" t="s" s="6">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s" s="6">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="J57" t="s" s="6">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="K57" t="s" s="6">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="6">
-        <v>173</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="6">
-        <v>94</v>
+        <v>402</v>
       </c>
       <c r="N57" t="s" s="6">
-        <v>94</v>
+        <v>403</v>
       </c>
       <c r="O57" t="s" s="6">
-        <v>94</v>
+        <v>402</v>
       </c>
       <c r="P57" t="s" s="6">
         <v>44</v>
@@ -6399,77 +6236,77 @@
         <v>46</v>
       </c>
       <c r="S57" t="s" s="6">
-        <v>113</v>
+        <v>354</v>
       </c>
       <c r="T57" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U57"/>
       <c r="V57" t="s" s="6">
-        <v>141</v>
+        <v>404</v>
       </c>
       <c r="W57" t="s" s="6">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="X57" t="s" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
       <c r="AB57"/>
       <c r="AC57" t="n" s="7">
-        <v>42936.37225054398</v>
+        <v>42940.66257869213</v>
       </c>
       <c r="AD57" t="n" s="7">
-        <v>42942.30793619213</v>
+        <v>42942.475954594905</v>
       </c>
       <c r="AE57" t="n" s="7">
-        <v>42942.708333333336</v>
+        <v>42947.66257876158</v>
       </c>
       <c r="AF57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="6">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="6">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C58" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D58" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F58" t="s" s="6">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="s" s="6">
-        <v>39</v>
+        <v>407</v>
       </c>
       <c r="J58" t="s" s="6">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="K58" t="s" s="6">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="6">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="M58" t="s" s="6">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="N58" t="s" s="6">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="O58" t="s" s="6">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="P58" t="s" s="6">
         <v>44</v>
@@ -6478,51 +6315,51 @@
         <v>60</v>
       </c>
       <c r="R58" t="s" s="6">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="S58" t="s" s="6">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="T58" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U58"/>
       <c r="V58" t="s" s="6">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="W58" t="s" s="6">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="X58" t="s" s="6">
-        <v>289</v>
+        <v>412</v>
       </c>
       <c r="Y58"/>
       <c r="Z58"/>
       <c r="AA58"/>
       <c r="AB58"/>
       <c r="AC58" t="n" s="7">
-        <v>42937.59338493056</v>
+        <v>42941.49802138889</v>
       </c>
       <c r="AD58" t="n" s="7">
-        <v>42943.48127618056</v>
+        <v>42941.54215260417</v>
       </c>
       <c r="AE58" t="n" s="7">
-        <v>42942.593385162036</v>
+        <v>42948.49802153935</v>
       </c>
       <c r="AF58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="6">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C59" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D59" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s" s="6">
         <v>37</v>
@@ -6533,72 +6370,72 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s" s="6">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="J59" t="s" s="6">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K59" t="s" s="6">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="L59" t="s" s="6">
+        <v>361</v>
+      </c>
+      <c r="M59" t="s" s="6">
+        <v>173</v>
+      </c>
+      <c r="N59" t="s" s="6">
         <v>416</v>
       </c>
-      <c r="M59" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="N59" t="s" s="6">
-        <v>94</v>
-      </c>
       <c r="O59" t="s" s="6">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="P59" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q59" t="s" s="6">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="R59" t="s" s="6">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="S59" t="s" s="6">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="T59" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U59"/>
       <c r="V59" t="s" s="6">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="W59" t="s" s="6">
-        <v>85</v>
+        <v>417</v>
       </c>
       <c r="X59" t="s" s="6">
-        <v>192</v>
+        <v>418</v>
       </c>
       <c r="Y59"/>
       <c r="Z59"/>
       <c r="AA59"/>
       <c r="AB59"/>
       <c r="AC59" t="n" s="7">
-        <v>42938.205258553244</v>
+        <v>42941.72993784722</v>
       </c>
       <c r="AD59" t="n" s="7">
-        <v>42943.57532636574</v>
+        <v>42944.45295074074</v>
       </c>
       <c r="AE59" t="n" s="7">
-        <v>42942.708333333336</v>
+        <v>42947.39660438657</v>
       </c>
       <c r="AF59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="6">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="6">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>35</v>
@@ -6607,7 +6444,7 @@
         <v>36</v>
       </c>
       <c r="E60" t="s" s="6">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s" s="6">
         <v>38</v>
@@ -6615,26 +6452,24 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s" s="6">
-        <v>86</v>
+        <v>421</v>
       </c>
       <c r="J60" t="s" s="6">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K60" t="s" s="6">
-        <v>415</v>
+        <v>118</v>
       </c>
       <c r="L60" t="s" s="6">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M60" t="s" s="6">
-        <v>94</v>
+        <v>423</v>
       </c>
       <c r="N60" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="O60" t="s" s="6">
-        <v>94</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O60"/>
       <c r="P60" t="s" s="6">
         <v>44</v>
       </c>
@@ -6645,40 +6480,42 @@
         <v>103</v>
       </c>
       <c r="S60" t="s" s="6">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="T60" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U60"/>
       <c r="V60" t="s" s="6">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="W60" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="X60"/>
+        <v>371</v>
+      </c>
+      <c r="X60" t="s" s="6">
+        <v>425</v>
+      </c>
       <c r="Y60"/>
       <c r="Z60"/>
       <c r="AA60"/>
       <c r="AB60"/>
       <c r="AC60" t="n" s="7">
-        <v>42940.32159288194</v>
+        <v>42942.60909381945</v>
       </c>
       <c r="AD60" t="n" s="7">
-        <v>42941.4478581713</v>
+        <v>42943.38586517361</v>
       </c>
       <c r="AE60" t="n" s="7">
-        <v>42942.708333333336</v>
+        <v>42947.60909384259</v>
       </c>
       <c r="AF60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="6">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="6">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>35</v>
@@ -6690,31 +6527,29 @@
         <v>37</v>
       </c>
       <c r="F61" t="s" s="6">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s" s="6">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J61" t="s" s="6">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K61" t="s" s="6">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L61" t="s" s="6">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M61" t="s" s="6">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="N61" t="s" s="6">
-        <v>200</v>
-      </c>
-      <c r="O61" t="s" s="6">
-        <v>199</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O61"/>
       <c r="P61" t="s" s="6">
         <v>44</v>
       </c>
@@ -6722,244 +6557,244 @@
         <v>60</v>
       </c>
       <c r="R61" t="s" s="6">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="S61" t="s" s="6">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="T61" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U61"/>
       <c r="V61" t="s" s="6">
-        <v>170</v>
+        <v>432</v>
       </c>
       <c r="W61" t="s" s="6">
-        <v>426</v>
+        <v>85</v>
       </c>
       <c r="X61" t="s" s="6">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="Y61"/>
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
       <c r="AC61" t="n" s="7">
-        <v>42940.499670081015</v>
+        <v>42943.42679376157</v>
       </c>
       <c r="AD61" t="n" s="7">
-        <v>42943.422443738425</v>
+        <v>42944.65677274305</v>
       </c>
       <c r="AE61" t="n" s="7">
-        <v>42947.49967025463</v>
+        <v>42950.426793796294</v>
       </c>
       <c r="AF61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="6">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="6">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D62" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F62" t="s" s="6">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s" s="6">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="J62" t="s" s="6">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="K62" t="s" s="6">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="L62" t="s" s="6">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="M62" t="s" s="6">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="N62" t="s" s="6">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="O62" t="s" s="6">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="P62" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q62" t="s" s="6">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="R62" t="s" s="6">
         <v>46</v>
       </c>
       <c r="S62" t="s" s="6">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="T62" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U62"/>
       <c r="V62" t="s" s="6">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="W62" t="s" s="6">
-        <v>426</v>
+        <v>85</v>
       </c>
       <c r="X62" t="s" s="6">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="Y62"/>
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
       <c r="AC62" t="n" s="7">
-        <v>42940.506349675925</v>
+        <v>42943.56193693287</v>
       </c>
       <c r="AD62" t="n" s="7">
-        <v>42944.31016706018</v>
+        <v>42943.60462445602</v>
       </c>
       <c r="AE62" t="n" s="7">
-        <v>42943.50634982639</v>
+        <v>42950.56193697917</v>
       </c>
       <c r="AF62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="6">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D63" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F63" t="s" s="6">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s" s="6">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="J63" t="s" s="6">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="K63" t="s" s="6">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="L63" t="s" s="6">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s" s="6">
-        <v>434</v>
+        <v>199</v>
       </c>
       <c r="N63" t="s" s="6">
-        <v>435</v>
+        <v>200</v>
       </c>
       <c r="O63" t="s" s="6">
-        <v>434</v>
+        <v>199</v>
       </c>
       <c r="P63" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q63" t="s" s="6">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="R63" t="s" s="6">
         <v>46</v>
       </c>
       <c r="S63" t="s" s="6">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="T63" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U63"/>
       <c r="V63" t="s" s="6">
-        <v>264</v>
+        <v>62</v>
       </c>
       <c r="W63" t="s" s="6">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="X63" t="s" s="6">
-        <v>436</v>
+        <v>217</v>
       </c>
       <c r="Y63"/>
       <c r="Z63"/>
       <c r="AA63"/>
       <c r="AB63"/>
       <c r="AC63" t="n" s="7">
-        <v>42940.45340125</v>
+        <v>42943.56565967593</v>
       </c>
       <c r="AD63" t="n" s="7">
-        <v>42941.596199976855</v>
+        <v>42944.61852068287</v>
       </c>
       <c r="AE63" t="n" s="7">
-        <v>42943.45340131944</v>
+        <v>42950.56565971065</v>
       </c>
       <c r="AF63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="6">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="6">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C64" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D64" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F64" t="s" s="6">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s" s="6">
-        <v>170</v>
+        <v>445</v>
       </c>
       <c r="J64" t="s" s="6">
-        <v>171</v>
+        <v>446</v>
       </c>
       <c r="K64" t="s" s="6">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="6">
-        <v>173</v>
+        <v>447</v>
       </c>
       <c r="M64" t="s" s="6">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="N64" t="s" s="6">
-        <v>310</v>
+        <v>94</v>
       </c>
       <c r="O64" t="s" s="6">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="P64" t="s" s="6">
         <v>44</v>
@@ -6968,80 +6803,80 @@
         <v>60</v>
       </c>
       <c r="R64" t="s" s="6">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="S64" t="s" s="6">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="T64" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U64"/>
       <c r="V64" t="s" s="6">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="W64" t="s" s="6">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="X64" t="s" s="6">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="Y64"/>
       <c r="Z64"/>
       <c r="AA64"/>
       <c r="AB64"/>
       <c r="AC64" t="n" s="7">
-        <v>42940.49832979167</v>
+        <v>42943.445329421294</v>
       </c>
       <c r="AD64" t="n" s="7">
-        <v>42940.54999734954</v>
+        <v>42943.519964039355</v>
       </c>
       <c r="AE64" t="n" s="7">
-        <v>42947.49832996528</v>
+        <v>42948.44532944445</v>
       </c>
       <c r="AF64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="6">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="6">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D65" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F65" t="s" s="6">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s" s="6">
-        <v>441</v>
+        <v>127</v>
       </c>
       <c r="J65" t="s" s="6">
-        <v>442</v>
+        <v>128</v>
       </c>
       <c r="K65" t="s" s="6">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s" s="6">
-        <v>444</v>
+        <v>130</v>
       </c>
       <c r="M65" t="s" s="6">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="N65" t="s" s="6">
-        <v>446</v>
+        <v>131</v>
       </c>
       <c r="O65" t="s" s="6">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="P65" t="s" s="6">
         <v>44</v>
@@ -7050,45 +6885,45 @@
         <v>60</v>
       </c>
       <c r="R65" t="s" s="6">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="S65" t="s" s="6">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="T65" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U65"/>
       <c r="V65" t="s" s="6">
-        <v>447</v>
+        <v>86</v>
       </c>
       <c r="W65" t="s" s="6">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="X65" t="s" s="6">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="Y65"/>
       <c r="Z65"/>
       <c r="AA65"/>
       <c r="AB65"/>
       <c r="AC65" t="n" s="7">
-        <v>42940.66257869213</v>
+        <v>42943.36885060185</v>
       </c>
       <c r="AD65" t="n" s="7">
-        <v>42942.475954594905</v>
+        <v>42943.44493708333</v>
       </c>
       <c r="AE65" t="n" s="7">
-        <v>42947.66257876158</v>
+        <v>42947.708333333336</v>
       </c>
       <c r="AF65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="6">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="6">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>35</v>
@@ -7100,112 +6935,112 @@
         <v>37</v>
       </c>
       <c r="F66" t="s" s="6">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s" s="6">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="J66" t="s" s="6">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K66" t="s" s="6">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L66" t="s" s="6">
-        <v>453</v>
+        <v>223</v>
       </c>
       <c r="M66" t="s" s="6">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="N66" t="s" s="6">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O66" t="s" s="6">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="6">
         <v>44</v>
       </c>
       <c r="Q66" t="s" s="6">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="R66" t="s" s="6">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="S66" t="s" s="6">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T66" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U66"/>
       <c r="V66" t="s" s="6">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="W66" t="s" s="6">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="X66" t="s" s="6">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="Y66"/>
       <c r="Z66"/>
       <c r="AA66"/>
       <c r="AB66"/>
       <c r="AC66" t="n" s="7">
-        <v>42942.39704210648</v>
+        <v>42943.49370986111</v>
       </c>
       <c r="AD66" t="n" s="7">
-        <v>42943.81388048611</v>
+        <v>42943.53866946759</v>
       </c>
       <c r="AE66" t="n" s="7">
-        <v>42947.39704212963</v>
+        <v>42948.493709849536</v>
       </c>
       <c r="AF66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="6">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B67" t="s" s="6">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D67" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F67" t="s" s="6">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s" s="6">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J67" t="s" s="6">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K67" t="s" s="6">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="L67" t="s" s="6">
-        <v>363</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="6">
-        <v>139</v>
+        <v>465</v>
       </c>
       <c r="N67" t="s" s="6">
-        <v>140</v>
+        <v>466</v>
       </c>
       <c r="O67" t="s" s="6">
-        <v>139</v>
+        <v>465</v>
       </c>
       <c r="P67" t="s" s="6">
         <v>44</v>
@@ -7214,45 +7049,45 @@
         <v>60</v>
       </c>
       <c r="R67" t="s" s="6">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="S67" t="s" s="6">
-        <v>461</v>
+        <v>214</v>
       </c>
       <c r="T67" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U67"/>
       <c r="V67" t="s" s="6">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="W67" t="s" s="6">
-        <v>462</v>
+        <v>216</v>
       </c>
       <c r="X67" t="s" s="6">
-        <v>463</v>
+        <v>217</v>
       </c>
       <c r="Y67"/>
       <c r="Z67"/>
       <c r="AA67"/>
       <c r="AB67"/>
       <c r="AC67" t="n" s="7">
-        <v>42941.49802138889</v>
+        <v>42943.706132025465</v>
       </c>
       <c r="AD67" t="n" s="7">
-        <v>42941.54215260417</v>
+        <v>42947.342196666665</v>
       </c>
       <c r="AE67" t="n" s="7">
-        <v>42948.49802153935</v>
+        <v>42948.70613204861</v>
       </c>
       <c r="AF67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="6">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B68" t="s" s="6">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>35</v>
@@ -7264,30 +7099,30 @@
         <v>37</v>
       </c>
       <c r="F68" t="s" s="6">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s" s="6">
-        <v>257</v>
+        <v>469</v>
       </c>
       <c r="J68" t="s" s="6">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K68" t="s" s="6">
-        <v>304</v>
+        <v>471</v>
       </c>
       <c r="L68" t="s" s="6">
-        <v>382</v>
+        <v>248</v>
       </c>
       <c r="M68" t="s" s="6">
-        <v>173</v>
+        <v>472</v>
       </c>
       <c r="N68" t="s" s="6">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="O68" t="s" s="6">
-        <v>173</v>
+        <v>472</v>
       </c>
       <c r="P68" t="s" s="6">
         <v>44</v>
@@ -7299,42 +7134,42 @@
         <v>72</v>
       </c>
       <c r="S68" t="s" s="6">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="T68" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U68"/>
       <c r="V68" t="s" s="6">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="W68" t="s" s="6">
-        <v>468</v>
+        <v>216</v>
       </c>
       <c r="X68" t="s" s="6">
-        <v>469</v>
+        <v>238</v>
       </c>
       <c r="Y68"/>
       <c r="Z68"/>
       <c r="AA68"/>
       <c r="AB68"/>
       <c r="AC68" t="n" s="7">
-        <v>42941.72993784722</v>
+        <v>42943.7848947338</v>
       </c>
       <c r="AD68" t="n" s="7">
-        <v>42942.67035908565</v>
+        <v>42943.827161215275</v>
       </c>
       <c r="AE68" t="n" s="7">
-        <v>42947.39660438657</v>
+        <v>42950.708333333336</v>
       </c>
       <c r="AF68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="6">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B69" t="s" s="6">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>35</v>
@@ -7343,7 +7178,7 @@
         <v>53</v>
       </c>
       <c r="E69" t="s" s="6">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="F69" t="s" s="6">
         <v>38</v>
@@ -7351,25 +7186,25 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s" s="6">
-        <v>472</v>
+        <v>238</v>
       </c>
       <c r="J69" t="s" s="6">
-        <v>473</v>
+        <v>326</v>
       </c>
       <c r="K69" t="s" s="6">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="L69" t="s" s="6">
         <v>120</v>
       </c>
       <c r="M69" t="s" s="6">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="N69" t="s" s="6">
-        <v>94</v>
+        <v>416</v>
       </c>
       <c r="O69" t="s" s="6">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="P69" t="s" s="6">
         <v>44</v>
@@ -7381,17 +7216,17 @@
         <v>46</v>
       </c>
       <c r="S69" t="s" s="6">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="T69" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U69"/>
       <c r="V69" t="s" s="6">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="W69" t="s" s="6">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="X69"/>
       <c r="Y69"/>
@@ -7399,56 +7234,58 @@
       <c r="AA69"/>
       <c r="AB69"/>
       <c r="AC69" t="n" s="7">
-        <v>42942.66408501157</v>
+        <v>42944.44393952546</v>
       </c>
       <c r="AD69" t="n" s="7">
-        <v>42942.68677040509</v>
+        <v>42944.44425337963</v>
       </c>
       <c r="AE69" t="n" s="7">
-        <v>42949.66408505787</v>
+        <v>42951.443939502315</v>
       </c>
       <c r="AF69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="6">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s" s="6">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D70" t="s" s="6">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>37</v>
       </c>
       <c r="F70" t="s" s="6">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s" s="6">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J70" t="s" s="6">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K70" t="s" s="6">
-        <v>118</v>
+        <v>480</v>
       </c>
       <c r="L70" t="s" s="6">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M70" t="s" s="6">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N70" t="s" s="6">
-        <v>479</v>
-      </c>
-      <c r="O70"/>
+        <v>483</v>
+      </c>
+      <c r="O70" t="s" s="6">
+        <v>482</v>
+      </c>
       <c r="P70" t="s" s="6">
         <v>44</v>
       </c>
@@ -7456,79 +7293,81 @@
         <v>60</v>
       </c>
       <c r="R70" t="s" s="6">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="S70" t="s" s="6">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="T70" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U70"/>
       <c r="V70" t="s" s="6">
-        <v>62</v>
+        <v>478</v>
       </c>
       <c r="W70" t="s" s="6">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="X70" t="s" s="6">
-        <v>480</v>
+        <v>404</v>
       </c>
       <c r="Y70"/>
       <c r="Z70"/>
       <c r="AA70"/>
       <c r="AB70"/>
       <c r="AC70" t="n" s="7">
-        <v>42942.60909381945</v>
+        <v>42944.54121633102</v>
       </c>
       <c r="AD70" t="n" s="7">
-        <v>42943.38586517361</v>
+        <v>42944.64283993056</v>
       </c>
       <c r="AE70" t="n" s="7">
-        <v>42947.60909384259</v>
+        <v>42951.54121638889</v>
       </c>
       <c r="AF70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="6">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="6">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D71" t="s" s="6">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E71" t="s" s="6">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s" s="6">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s" s="6">
-        <v>483</v>
+        <v>123</v>
       </c>
       <c r="J71" t="s" s="6">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K71" t="s" s="6">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L71" t="s" s="6">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s" s="6">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="N71" t="s" s="6">
-        <v>121</v>
-      </c>
-      <c r="O71"/>
+        <v>347</v>
+      </c>
+      <c r="O71" t="s" s="6">
+        <v>346</v>
+      </c>
       <c r="P71" t="s" s="6">
         <v>44</v>
       </c>
@@ -7536,855 +7375,41 @@
         <v>60</v>
       </c>
       <c r="R71" t="s" s="6">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="S71" t="s" s="6">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="T71" t="s" s="6">
         <v>48</v>
       </c>
       <c r="U71"/>
       <c r="V71" t="s" s="6">
-        <v>487</v>
+        <v>123</v>
       </c>
       <c r="W71" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="X71"/>
+        <v>393</v>
+      </c>
+      <c r="X71" t="s" s="6">
+        <v>123</v>
+      </c>
       <c r="Y71"/>
       <c r="Z71"/>
       <c r="AA71"/>
       <c r="AB71"/>
       <c r="AC71" t="n" s="7">
-        <v>42943.42679376157</v>
+        <v>42947.359896145834</v>
       </c>
       <c r="AD71" t="n" s="7">
-        <v>42943.50167226852</v>
+        <v>42947.35990403935</v>
       </c>
       <c r="AE71" t="n" s="7">
-        <v>42950.426793796294</v>
+        <v>42949.708333333336</v>
       </c>
       <c r="AF71"/>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="6">
-        <v>488</v>
-      </c>
-      <c r="B72" t="s" s="6">
-        <v>489</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D72" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72" t="s" s="6">
-        <v>490</v>
-      </c>
-      <c r="J72" t="s" s="6">
-        <v>491</v>
-      </c>
-      <c r="K72" t="s" s="6">
-        <v>492</v>
-      </c>
-      <c r="L72" t="s" s="6">
-        <v>263</v>
-      </c>
-      <c r="M72" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="N72" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="O72" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="P72" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q72" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R72" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="S72" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="T72" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U72"/>
-      <c r="V72" t="s" s="6">
-        <v>141</v>
-      </c>
-      <c r="W72" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="X72" t="s" s="6">
-        <v>192</v>
-      </c>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72" t="n" s="7">
-        <v>42943.56193693287</v>
-      </c>
-      <c r="AD72" t="n" s="7">
-        <v>42943.60462445602</v>
-      </c>
-      <c r="AE72" t="n" s="7">
-        <v>42950.56193697917</v>
-      </c>
-      <c r="AF72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="6">
-        <v>493</v>
-      </c>
-      <c r="B73" t="s" s="6">
-        <v>494</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D73" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>419</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>317</v>
-      </c>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73" t="s" s="6">
-        <v>495</v>
-      </c>
-      <c r="J73" t="s" s="6">
-        <v>496</v>
-      </c>
-      <c r="K73" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="L73" t="s" s="6">
-        <v>497</v>
-      </c>
-      <c r="M73" t="s" s="6">
-        <v>199</v>
-      </c>
-      <c r="N73" t="s" s="6">
-        <v>200</v>
-      </c>
-      <c r="O73" t="s" s="6">
-        <v>199</v>
-      </c>
-      <c r="P73" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q73" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R73" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="S73" t="s" s="6">
-        <v>214</v>
-      </c>
-      <c r="T73" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U73"/>
-      <c r="V73" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="W73" t="s" s="6">
-        <v>216</v>
-      </c>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73" t="n" s="7">
-        <v>42943.56565967593</v>
-      </c>
-      <c r="AD73" t="n" s="7">
-        <v>42943.56566393519</v>
-      </c>
-      <c r="AE73" t="n" s="7">
-        <v>42950.56565971065</v>
-      </c>
-      <c r="AF73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="6">
-        <v>498</v>
-      </c>
-      <c r="B74" t="s" s="6">
-        <v>499</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D74" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74" t="s" s="6">
-        <v>500</v>
-      </c>
-      <c r="J74" t="s" s="6">
-        <v>501</v>
-      </c>
-      <c r="K74" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="L74" t="s" s="6">
-        <v>502</v>
-      </c>
-      <c r="M74" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="N74" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="O74" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="P74" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q74" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R74" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="S74" t="s" s="6">
-        <v>503</v>
-      </c>
-      <c r="T74" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U74"/>
-      <c r="V74" t="s" s="6">
-        <v>504</v>
-      </c>
-      <c r="W74" t="s" s="6">
-        <v>505</v>
-      </c>
-      <c r="X74" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74" t="n" s="7">
-        <v>42943.445329421294</v>
-      </c>
-      <c r="AD74" t="n" s="7">
-        <v>42943.519964039355</v>
-      </c>
-      <c r="AE74" t="n" s="7">
-        <v>42948.44532944445</v>
-      </c>
-      <c r="AF74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="6">
-        <v>506</v>
-      </c>
-      <c r="B75" t="s" s="6">
-        <v>507</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D75" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75" t="s" s="6">
-        <v>127</v>
-      </c>
-      <c r="J75" t="s" s="6">
-        <v>128</v>
-      </c>
-      <c r="K75" t="s" s="6">
-        <v>129</v>
-      </c>
-      <c r="L75" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="M75" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="N75" t="s" s="6">
-        <v>131</v>
-      </c>
-      <c r="O75" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="P75" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q75" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R75" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="S75" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="T75" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U75"/>
-      <c r="V75" t="s" s="6">
-        <v>86</v>
-      </c>
-      <c r="W75" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="X75" t="s" s="6">
-        <v>149</v>
-      </c>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AC75" t="n" s="7">
-        <v>42943.36885060185</v>
-      </c>
-      <c r="AD75" t="n" s="7">
-        <v>42943.44493708333</v>
-      </c>
-      <c r="AE75" t="n" s="7">
-        <v>42947.708333333336</v>
-      </c>
-      <c r="AF75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="6">
-        <v>508</v>
-      </c>
-      <c r="B76" t="s" s="6">
-        <v>509</v>
-      </c>
-      <c r="C76" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D76" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="E76" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F76" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76" t="s" s="6">
-        <v>510</v>
-      </c>
-      <c r="J76" t="s" s="6">
-        <v>511</v>
-      </c>
-      <c r="K76" t="s" s="6">
-        <v>512</v>
-      </c>
-      <c r="L76" t="s" s="6">
-        <v>223</v>
-      </c>
-      <c r="M76" t="s" s="6">
-        <v>513</v>
-      </c>
-      <c r="N76" t="s" s="6">
-        <v>514</v>
-      </c>
-      <c r="O76" t="s" s="6">
-        <v>513</v>
-      </c>
-      <c r="P76" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q76" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R76" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="S76" t="s" s="6">
-        <v>358</v>
-      </c>
-      <c r="T76" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U76"/>
-      <c r="V76" t="s" s="6">
-        <v>366</v>
-      </c>
-      <c r="W76" t="s" s="6">
-        <v>392</v>
-      </c>
-      <c r="X76" t="s" s="6">
-        <v>366</v>
-      </c>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76" t="n" s="7">
-        <v>42943.49370986111</v>
-      </c>
-      <c r="AD76" t="n" s="7">
-        <v>42943.53866946759</v>
-      </c>
-      <c r="AE76" t="n" s="7">
-        <v>42948.493709849536</v>
-      </c>
-      <c r="AF76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="6">
-        <v>515</v>
-      </c>
-      <c r="B77" t="s" s="6">
-        <v>516</v>
-      </c>
-      <c r="C77" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D77" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="E77" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77" t="s" s="6">
-        <v>517</v>
-      </c>
-      <c r="J77" t="s" s="6">
-        <v>518</v>
-      </c>
-      <c r="K77" t="s" s="6">
-        <v>320</v>
-      </c>
-      <c r="L77" t="s" s="6">
-        <v>519</v>
-      </c>
-      <c r="M77" t="s" s="6">
-        <v>520</v>
-      </c>
-      <c r="N77" t="s" s="6">
-        <v>521</v>
-      </c>
-      <c r="O77" t="s" s="6">
-        <v>520</v>
-      </c>
-      <c r="P77" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q77" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R77" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="S77" t="s" s="6">
-        <v>214</v>
-      </c>
-      <c r="T77" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U77"/>
-      <c r="V77" t="s" s="6">
-        <v>192</v>
-      </c>
-      <c r="W77" t="s" s="6">
-        <v>216</v>
-      </c>
-      <c r="X77" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77" t="n" s="7">
-        <v>42943.706132025465</v>
-      </c>
-      <c r="AD77" t="n" s="7">
-        <v>42943.75064481481</v>
-      </c>
-      <c r="AE77" t="n" s="7">
-        <v>42948.70613204861</v>
-      </c>
-      <c r="AF77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="6">
-        <v>522</v>
-      </c>
-      <c r="B78" t="s" s="6">
-        <v>523</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D78" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78" t="s" s="6">
-        <v>524</v>
-      </c>
-      <c r="J78" t="s" s="6">
-        <v>525</v>
-      </c>
-      <c r="K78" t="s" s="6">
-        <v>526</v>
-      </c>
-      <c r="L78" t="s" s="6">
-        <v>248</v>
-      </c>
-      <c r="M78" t="s" s="6">
-        <v>527</v>
-      </c>
-      <c r="N78" t="s" s="6">
-        <v>528</v>
-      </c>
-      <c r="O78" t="s" s="6">
-        <v>527</v>
-      </c>
-      <c r="P78" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q78" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R78" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="S78" t="s" s="6">
-        <v>214</v>
-      </c>
-      <c r="T78" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U78"/>
-      <c r="V78" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="W78" t="s" s="6">
-        <v>216</v>
-      </c>
-      <c r="X78" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78" t="n" s="7">
-        <v>42943.7848947338</v>
-      </c>
-      <c r="AD78" t="n" s="7">
-        <v>42943.827161215275</v>
-      </c>
-      <c r="AE78" t="n" s="7">
-        <v>42950.708333333336</v>
-      </c>
-      <c r="AF78"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="6">
-        <v>529</v>
-      </c>
-      <c r="B79" t="s" s="6">
-        <v>530</v>
-      </c>
-      <c r="C79" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D79" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="E79" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F79" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79" t="s" s="6">
-        <v>531</v>
-      </c>
-      <c r="J79" t="s" s="6">
-        <v>532</v>
-      </c>
-      <c r="K79" t="s" s="6">
-        <v>137</v>
-      </c>
-      <c r="L79" t="s" s="6">
-        <v>533</v>
-      </c>
-      <c r="M79" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="N79" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="O79" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="P79" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q79" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R79" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="S79" t="s" s="6">
-        <v>330</v>
-      </c>
-      <c r="T79" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U79"/>
-      <c r="V79" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="W79" t="s" s="6">
-        <v>331</v>
-      </c>
-      <c r="X79" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
-      <c r="AC79" t="n" s="7">
-        <v>42943.787936967594</v>
-      </c>
-      <c r="AD79" t="n" s="7">
-        <v>42943.830616921296</v>
-      </c>
-      <c r="AE79" t="n" s="7">
-        <v>42950.708333333336</v>
-      </c>
-      <c r="AF79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="6">
-        <v>534</v>
-      </c>
-      <c r="B80" t="s" s="6">
-        <v>535</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D80" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80" t="s" s="6">
-        <v>141</v>
-      </c>
-      <c r="J80" t="s" s="6">
-        <v>536</v>
-      </c>
-      <c r="K80" t="s" s="6">
-        <v>304</v>
-      </c>
-      <c r="L80" t="s" s="6">
-        <v>416</v>
-      </c>
-      <c r="M80" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="N80" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="O80" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="P80" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q80" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="R80" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="S80" t="s" s="6">
-        <v>214</v>
-      </c>
-      <c r="T80" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U80"/>
-      <c r="V80" t="s" s="6">
-        <v>141</v>
-      </c>
-      <c r="W80" t="s" s="6">
-        <v>216</v>
-      </c>
-      <c r="X80" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80" t="n" s="7">
-        <v>42944.341275729166</v>
-      </c>
-      <c r="AD80" t="n" s="7">
-        <v>42944.341284594906</v>
-      </c>
-      <c r="AE80" t="n" s="7">
-        <v>42950.708333333336</v>
-      </c>
-      <c r="AF80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="6">
-        <v>537</v>
-      </c>
-      <c r="B81" t="s" s="6">
-        <v>538</v>
-      </c>
-      <c r="C81" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D81" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>419</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81" t="s" s="6">
-        <v>539</v>
-      </c>
-      <c r="J81" t="s" s="6">
-        <v>540</v>
-      </c>
-      <c r="K81" t="s" s="6">
-        <v>541</v>
-      </c>
-      <c r="L81" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="M81" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="N81" t="s" s="6">
-        <v>131</v>
-      </c>
-      <c r="O81" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="P81" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q81" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="R81" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="S81" t="s" s="6">
-        <v>503</v>
-      </c>
-      <c r="T81" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="U81"/>
-      <c r="V81" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="W81" t="s" s="6">
-        <v>505</v>
-      </c>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AC81" t="n" s="7">
-        <v>42944.377065243054</v>
-      </c>
-      <c r="AD81" t="n" s="7">
-        <v>42944.37706896991</v>
-      </c>
-      <c r="AE81" t="n" s="7">
-        <v>42949.377065243054</v>
-      </c>
-      <c r="AF81"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AF81"/>
+  <autoFilter ref="A1:AF71"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>